--- a/testes/polinomial.xlsx
+++ b/testes/polinomial.xlsx
@@ -61,16 +61,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7400037338428937E-2"/>
-          <c:y val="3.5292982316604354E-2"/>
-          <c:w val="0.80056018625286907"/>
-          <c:h val="0.90261502160714757"/>
+          <c:x val="4.7400037338428951E-2"/>
+          <c:y val="3.5292982316604361E-2"/>
+          <c:w val="0.80056018625286895"/>
+          <c:h val="0.90261502160714768"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -78,6 +79,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Leituras</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -89,8 +93,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.25662482566248257"/>
-                  <c:y val="-0.68703539330310981"/>
+                  <c:x val="0.27946419354484453"/>
+                  <c:y val="-0.74118359447493309"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
@@ -242,23 +246,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="53864704"/>
-        <c:axId val="49547520"/>
+        <c:axId val="72575616"/>
+        <c:axId val="72593792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53864704"/>
+        <c:axId val="72575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49547520"/>
+        <c:crossAx val="72593792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49547520"/>
+        <c:axId val="72593792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,7 +270,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53864704"/>
+        <c:crossAx val="72575616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -279,7 +283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -608,7 +612,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
